--- a/data/trans_orig/CONS_DOL-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_DOL-Estudios-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el dolor en País Vasco</t>
+          <t>Consumo de medicamentos para el dolor en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2157,7 +2157,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el dolor en Andalucia</t>
+          <t>Consumo de medicamentos para el dolor en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3768,7 +3768,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el dolor en C.Valenciana</t>
+          <t>Consumo de medicamentos para el dolor en C.Valenciana (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5379,7 +5379,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el dolor en Barcelona</t>
+          <t>Consumo de medicamentos para el dolor en Barcelona (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_DOL-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_DOL-Estudios-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14594</t>
+          <t>15270</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11822</t>
+          <t>12287</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18254</t>
+          <t>18244</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>18,5%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>22,1%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>36620</t>
+          <t>35397</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>32198</t>
+          <t>31401</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>41337</t>
+          <t>39588</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>28,67%</t>
+          <t>29,14%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>25,2%</t>
+          <t>25,85%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>32,36%</t>
+          <t>32,6%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>51214</t>
+          <t>50666</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>45769</t>
+          <t>45809</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>57346</t>
+          <t>56669</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>23,73%</t>
+          <t>24,84%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>22,46%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>27,78%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>73470</t>
+          <t>67272</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>69810</t>
+          <t>64298</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>76242</t>
+          <t>70255</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>83,43%</t>
+          <t>81,5%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>79,27%</t>
+          <t>77,9%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>86,58%</t>
+          <t>85,11%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>91124</t>
+          <t>86055</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>86407</t>
+          <t>81864</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>95546</t>
+          <t>90051</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>71,33%</t>
+          <t>70,86%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>67,64%</t>
+          <t>67,4%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>74,8%</t>
+          <t>74,15%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>164595</t>
+          <t>153328</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>158463</t>
+          <t>147325</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>170040</t>
+          <t>158185</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>76,27%</t>
+          <t>75,16%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>73,43%</t>
+          <t>72,22%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>78,79%</t>
+          <t>77,54%</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -997,17 +997,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1032,17 +1032,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1079,32 +1079,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>52714</t>
+          <t>50946</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>46530</t>
+          <t>45342</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>59285</t>
+          <t>57311</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>9,82%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1114,32 +1114,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>83421</t>
+          <t>83950</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>76566</t>
+          <t>76830</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>90963</t>
+          <t>91062</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>19,32%</t>
+          <t>18,89%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>17,29%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>21,07%</t>
+          <t>20,49%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1149,32 +1149,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>136135</t>
+          <t>134896</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>126464</t>
+          <t>125704</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>145658</t>
+          <t>144538</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>15,38%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>13,87%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>15,95%</t>
         </is>
       </c>
     </row>
@@ -1192,32 +1192,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>400777</t>
+          <t>410733</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>394206</t>
+          <t>404368</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>406961</t>
+          <t>416337</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>88,38%</t>
+          <t>88,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>86,93%</t>
+          <t>87,59%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>89,74%</t>
+          <t>90,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>348381</t>
+          <t>360407</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>340839</t>
+          <t>353295</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>355236</t>
+          <t>367527</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>80,68%</t>
+          <t>81,11%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>78,93%</t>
+          <t>79,51%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>82,27%</t>
+          <t>82,71%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>749158</t>
+          <t>771139</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>739635</t>
+          <t>761497</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>758829</t>
+          <t>780331</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>84,62%</t>
+          <t>85,11%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>83,55%</t>
+          <t>84,05%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>85,71%</t>
+          <t>86,13%</t>
         </is>
       </c>
     </row>
@@ -1305,17 +1305,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1422,32 +1422,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10874</t>
+          <t>11719</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8125</t>
+          <t>9061</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13969</t>
+          <t>15047</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1457,32 +1457,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20531</t>
+          <t>24346</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>17005</t>
+          <t>20172</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>24397</t>
+          <t>28843</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1492,32 +1492,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>31405</t>
+          <t>36065</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>26657</t>
+          <t>30986</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>35706</t>
+          <t>41269</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>10,23%</t>
         </is>
       </c>
     </row>
@@ -1535,32 +1535,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>140751</t>
+          <t>163842</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>137656</t>
+          <t>160514</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>143500</t>
+          <t>166500</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>92,83%</t>
+          <t>93,32%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,79%</t>
+          <t>91,43%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>94,64%</t>
+          <t>94,84%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1570,32 +1570,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>173706</t>
+          <t>203648</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>169840</t>
+          <t>199151</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>177232</t>
+          <t>207822</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>89,43%</t>
+          <t>89,32%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>87,44%</t>
+          <t>87,35%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>91,25%</t>
+          <t>91,15%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1605,32 +1605,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>314458</t>
+          <t>367490</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>310157</t>
+          <t>362286</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>319206</t>
+          <t>372569</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>90,92%</t>
+          <t>91,06%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>89,68%</t>
+          <t>89,77%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>92,29%</t>
+          <t>92,32%</t>
         </is>
       </c>
     </row>
@@ -1648,17 +1648,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1683,17 +1683,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1718,17 +1718,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1765,32 +1765,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>78181</t>
+          <t>77934</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>71171</t>
+          <t>70588</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>86101</t>
+          <t>85995</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1800,32 +1800,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>140573</t>
+          <t>143694</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>131193</t>
+          <t>134542</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>149709</t>
+          <t>153807</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>19,38%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1835,32 +1835,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>218754</t>
+          <t>221628</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>207094</t>
+          <t>209840</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>231106</t>
+          <t>234669</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>15,5%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +1878,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>615000</t>
+          <t>641847</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>607080</t>
+          <t>633786</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>622010</t>
+          <t>649193</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>88,72%</t>
+          <t>89,17%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>87,58%</t>
+          <t>88,05%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>89,73%</t>
+          <t>90,19%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1913,32 +1913,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>613211</t>
+          <t>650109</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>604075</t>
+          <t>639996</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>622591</t>
+          <t>659261</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>81,35%</t>
+          <t>81,9%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>80,14%</t>
+          <t>80,62%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>82,6%</t>
+          <t>83,05%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1948,32 +1948,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1228211</t>
+          <t>1291956</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1215859</t>
+          <t>1278915</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1239871</t>
+          <t>1303744</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>84,88%</t>
+          <t>85,36%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>84,03%</t>
+          <t>84,5%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>85,69%</t>
+          <t>86,14%</t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2061,17 +2061,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2352,12 +2352,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>65811</t>
+          <t>67020</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>92779</t>
+          <t>93284</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -2367,12 +2367,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,83%</t>
+          <t>29,36%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>40,64%</t>
+          <t>40,86%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -2387,12 +2387,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>212143</t>
+          <t>210344</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>242538</t>
+          <t>242060</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -2402,12 +2402,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>53,69%</t>
+          <t>53,24%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>61,39%</t>
+          <t>61,27%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -2422,12 +2422,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>285906</t>
+          <t>285890</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>330036</t>
+          <t>330446</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>52,94%</t>
+          <t>53,01%</t>
         </is>
       </c>
     </row>
@@ -2465,12 +2465,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>135518</t>
+          <t>135013</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>162486</t>
+          <t>161277</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -2480,12 +2480,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,36%</t>
+          <t>59,14%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>71,17%</t>
+          <t>70,64%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>152552</t>
+          <t>153030</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>182947</t>
+          <t>184746</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -2515,12 +2515,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>38,61%</t>
+          <t>38,73%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>46,31%</t>
+          <t>46,76%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -2535,12 +2535,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>293351</t>
+          <t>292941</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>337481</t>
+          <t>337497</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>47,06%</t>
+          <t>46,99%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
@@ -2695,12 +2695,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>147062</t>
+          <t>156370</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>332495</t>
+          <t>331234</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -2710,12 +2710,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,59%</t>
+          <t>23,5%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -2730,12 +2730,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>443459</t>
+          <t>449277</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>882885</t>
+          <t>930044</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -2745,12 +2745,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>32,0%</t>
+          <t>32,42%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>63,71%</t>
+          <t>67,11%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -2765,12 +2765,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>651448</t>
+          <t>653219</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>1322379</t>
+          <t>1359029</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -2780,12 +2780,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>23,31%</t>
+          <t>23,37%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>47,31%</t>
+          <t>48,62%</t>
         </is>
       </c>
     </row>
@@ -2808,12 +2808,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1076898</t>
+          <t>1078159</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1262331</t>
+          <t>1253023</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -2823,12 +2823,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>76,41%</t>
+          <t>76,5%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>89,57%</t>
+          <t>88,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -2843,12 +2843,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>502926</t>
+          <t>455767</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>942352</t>
+          <t>936534</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -2858,12 +2858,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>36,29%</t>
+          <t>32,89%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>68,0%</t>
+          <t>67,58%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -2878,12 +2878,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1472825</t>
+          <t>1436175</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2143756</t>
+          <t>2141985</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -2893,12 +2893,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>52,69%</t>
+          <t>51,38%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>76,69%</t>
+          <t>76,63%</t>
         </is>
       </c>
     </row>
@@ -3038,12 +3038,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>78576</t>
+          <t>75934</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>116421</t>
+          <t>114650</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3053,12 +3053,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,09%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>25,32%</t>
+          <t>24,93%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3073,12 +3073,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>132171</t>
+          <t>131103</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>167366</t>
+          <t>165105</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3088,12 +3088,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>29,81%</t>
+          <t>29,57%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>37,75%</t>
+          <t>37,24%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -3108,12 +3108,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>217860</t>
+          <t>219451</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>270474</t>
+          <t>270124</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -3123,12 +3123,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
+          <t>24,3%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>29,95%</t>
+          <t>29,91%</t>
         </is>
       </c>
     </row>
@@ -3151,12 +3151,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>343380</t>
+          <t>345151</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>381225</t>
+          <t>383867</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -3166,12 +3166,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>74,68%</t>
+          <t>75,07%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>82,91%</t>
+          <t>83,49%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -3186,12 +3186,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>276008</t>
+          <t>278269</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>311203</t>
+          <t>312271</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -3201,12 +3201,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>62,25%</t>
+          <t>62,76%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>70,19%</t>
+          <t>70,43%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -3221,12 +3221,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>632701</t>
+          <t>633051</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>685315</t>
+          <t>683724</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>70,05%</t>
+          <t>70,09%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>75,88%</t>
+          <t>75,7%</t>
         </is>
       </c>
     </row>
@@ -3381,12 +3381,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>289259</t>
+          <t>284789</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>511873</t>
+          <t>508689</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -3396,12 +3396,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>13,58%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,4%</t>
+          <t>24,25%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -3416,12 +3416,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>828847</t>
+          <t>834324</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1342260</t>
+          <t>1313966</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -3431,12 +3431,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>37,26%</t>
+          <t>37,51%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>60,35%</t>
+          <t>59,07%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -3451,12 +3451,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>1192458</t>
+          <t>1192278</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>1915069</t>
+          <t>1862194</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>44,31%</t>
+          <t>43,09%</t>
         </is>
       </c>
     </row>
@@ -3494,12 +3494,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1585618</t>
+          <t>1588802</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1808232</t>
+          <t>1812702</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -3509,12 +3509,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>75,6%</t>
+          <t>75,75%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>86,21%</t>
+          <t>86,42%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>882016</t>
+          <t>910310</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1395429</t>
+          <t>1389952</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -3544,12 +3544,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>39,65%</t>
+          <t>40,93%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>62,74%</t>
+          <t>62,49%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -3564,12 +3564,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2406697</t>
+          <t>2459572</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>3129308</t>
+          <t>3129488</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -3579,7 +3579,7 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>55,69%</t>
+          <t>56,91%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
@@ -5574,12 +5574,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21432</t>
+          <t>22825</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>41891</t>
+          <t>43861</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -5589,12 +5589,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>23,16%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>42,5%</t>
+          <t>44,5%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -5609,12 +5609,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>68668</t>
+          <t>67436</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>87008</t>
+          <t>87175</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -5624,12 +5624,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>57,67%</t>
+          <t>56,63%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>73,07%</t>
+          <t>73,21%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -5644,12 +5644,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>95507</t>
+          <t>94374</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>124854</t>
+          <t>124293</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -5659,12 +5659,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>43,88%</t>
+          <t>43,36%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>57,37%</t>
+          <t>57,11%</t>
         </is>
       </c>
     </row>
@@ -5687,12 +5687,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>56664</t>
+          <t>54694</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>77123</t>
+          <t>75730</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -5702,12 +5702,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>57,5%</t>
+          <t>55,5%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>78,25%</t>
+          <t>76,84%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -5722,12 +5722,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>32072</t>
+          <t>31905</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>50412</t>
+          <t>51644</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -5737,12 +5737,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>26,93%</t>
+          <t>26,79%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>42,33%</t>
+          <t>43,37%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -5757,12 +5757,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>92781</t>
+          <t>93342</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>122128</t>
+          <t>123261</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -5772,12 +5772,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>42,63%</t>
+          <t>42,89%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>56,12%</t>
+          <t>56,64%</t>
         </is>
       </c>
     </row>
@@ -5917,12 +5917,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90782</t>
+          <t>88876</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>114138</t>
+          <t>112946</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -5932,12 +5932,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,44%</t>
+          <t>24,9%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,98%</t>
+          <t>31,65%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -5952,12 +5952,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>129178</t>
+          <t>128527</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>155386</t>
+          <t>154250</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -5967,12 +5967,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>36,48%</t>
+          <t>36,3%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>43,89%</t>
+          <t>43,56%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -5987,12 +5987,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>225990</t>
+          <t>224757</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>260375</t>
+          <t>260604</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -6002,12 +6002,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>31,79%</t>
+          <t>31,61%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>36,62%</t>
+          <t>36,66%</t>
         </is>
       </c>
     </row>
@@ -6030,12 +6030,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>242750</t>
+          <t>243942</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>266106</t>
+          <t>268012</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -6045,12 +6045,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>68,02%</t>
+          <t>68,35%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>74,56%</t>
+          <t>75,1%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -6065,12 +6065,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>198684</t>
+          <t>199820</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>224892</t>
+          <t>225543</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -6080,12 +6080,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>56,11%</t>
+          <t>56,44%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>63,52%</t>
+          <t>63,7%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -6100,12 +6100,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>450583</t>
+          <t>450354</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>484968</t>
+          <t>486201</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -6115,12 +6115,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>63,38%</t>
+          <t>63,34%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>68,21%</t>
+          <t>68,39%</t>
         </is>
       </c>
     </row>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>48946</t>
+          <t>48221</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>66501</t>
+          <t>66794</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -6275,12 +6275,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>21,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>29,73%</t>
+          <t>29,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -6295,12 +6295,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>67148</t>
+          <t>67374</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>87897</t>
+          <t>87784</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -6310,12 +6310,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>23,75%</t>
+          <t>23,83%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>31,09%</t>
+          <t>31,05%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -6330,12 +6330,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>121673</t>
+          <t>122356</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>149217</t>
+          <t>148909</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -6345,12 +6345,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>24,03%</t>
+          <t>24,16%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>29,47%</t>
+          <t>29,41%</t>
         </is>
       </c>
     </row>
@@ -6373,12 +6373,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>157190</t>
+          <t>156897</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>174745</t>
+          <t>175470</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -6388,12 +6388,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>70,27%</t>
+          <t>70,14%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>78,12%</t>
+          <t>78,44%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -6408,12 +6408,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>194785</t>
+          <t>194898</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>215534</t>
+          <t>215308</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -6423,12 +6423,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>68,91%</t>
+          <t>68,95%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>76,25%</t>
+          <t>76,17%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -6443,12 +6443,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>357156</t>
+          <t>357464</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>384700</t>
+          <t>384017</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -6458,12 +6458,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>70,53%</t>
+          <t>70,59%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>75,97%</t>
+          <t>75,84%</t>
         </is>
       </c>
     </row>
@@ -6603,12 +6603,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>172750</t>
+          <t>172246</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>206639</t>
+          <t>208189</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -6618,12 +6618,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,44%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>30,43%</t>
+          <t>30,66%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -6638,12 +6638,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>277255</t>
+          <t>274894</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>316758</t>
+          <t>316240</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -6653,12 +6653,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>36,68%</t>
+          <t>36,37%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>41,91%</t>
+          <t>41,84%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -6673,12 +6673,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>459864</t>
+          <t>461301</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>511561</t>
+          <t>514071</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -6688,12 +6688,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>32,05%</t>
+          <t>32,15%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>35,65%</t>
+          <t>35,82%</t>
         </is>
       </c>
     </row>
@@ -6716,12 +6716,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>472495</t>
+          <t>470945</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>506384</t>
+          <t>506888</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -6731,12 +6731,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>69,57%</t>
+          <t>69,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>74,56%</t>
+          <t>74,64%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -6751,12 +6751,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>439075</t>
+          <t>439593</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>478578</t>
+          <t>480939</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -6766,12 +6766,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>58,09%</t>
+          <t>58,16%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>63,32%</t>
+          <t>63,63%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -6786,12 +6786,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>923406</t>
+          <t>920896</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>975103</t>
+          <t>973666</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -6801,12 +6801,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>64,35%</t>
+          <t>64,18%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>67,95%</t>
+          <t>67,85%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_DOL-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_DOL-Estudios-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el dolor en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos para el dolor en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,107 +731,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15270</t>
+          <t>88044</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12287</t>
+          <t>75265</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18244</t>
+          <t>102843</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>34,47%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>29,47%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>22,1%</t>
+          <t>40,27%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>409</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>35397</t>
+          <t>245636</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>31401</t>
+          <t>225964</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>39588</t>
+          <t>260755</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>29,14%</t>
+          <t>56,78%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>25,85%</t>
+          <t>52,23%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>32,6%</t>
+          <t>60,28%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>515</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>50666</t>
+          <t>333681</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>45809</t>
+          <t>311093</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>56669</t>
+          <t>358062</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>24,84%</t>
+          <t>48,5%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>45,22%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>27,78%</t>
+          <t>52,04%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>184</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>67272</t>
+          <t>167348</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>64298</t>
+          <t>152549</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>70255</t>
+          <t>180127</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>81,5%</t>
+          <t>65,53%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>77,9%</t>
+          <t>59,73%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>85,11%</t>
+          <t>70,53%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>286</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>86055</t>
+          <t>186961</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>81864</t>
+          <t>171842</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>90051</t>
+          <t>206633</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>70,86%</t>
+          <t>43,22%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>67,4%</t>
+          <t>39,72%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>74,15%</t>
+          <t>47,77%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>959</t>
+          <t>470</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>153328</t>
+          <t>354308</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>147325</t>
+          <t>329927</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>158185</t>
+          <t>376896</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>75,16%</t>
+          <t>51,5%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>72,22%</t>
+          <t>47,96%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>77,54%</t>
+          <t>54,78%</t>
         </is>
       </c>
     </row>
@@ -957,22 +957,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>290</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -992,22 +992,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>695</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432597</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432597</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432597</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1027,22 +1027,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>985</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687989</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687989</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687989</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1074,107 +1074,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>267</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>50946</t>
+          <t>283558</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>45342</t>
+          <t>250414</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>57311</t>
+          <t>316192</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>22,02%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>19,45%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>24,56%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>633</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>83950</t>
+          <t>448434</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>76830</t>
+          <t>418795</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>91062</t>
+          <t>479686</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,89%</t>
+          <t>35,29%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>32,96%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>37,75%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>785</t>
+          <t>900</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>134896</t>
+          <t>731992</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>125704</t>
+          <t>686714</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>144538</t>
+          <t>777261</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>28,61%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>26,84%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>30,38%</t>
         </is>
       </c>
     </row>
@@ -1187,107 +1187,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2346</t>
+          <t>844</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>410733</t>
+          <t>1004129</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>404368</t>
+          <t>971495</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>416337</t>
+          <t>1037273</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>88,97%</t>
+          <t>77,98%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>87,59%</t>
+          <t>75,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>90,18%</t>
+          <t>80,55%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>1006</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>360407</t>
+          <t>822307</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>353295</t>
+          <t>791055</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>367527</t>
+          <t>851946</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>81,11%</t>
+          <t>64,71%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>79,51%</t>
+          <t>62,25%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>82,71%</t>
+          <t>67,04%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>4365</t>
+          <t>1850</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>771139</t>
+          <t>1826436</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>761497</t>
+          <t>1781167</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>780331</t>
+          <t>1871714</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>85,11%</t>
+          <t>71,39%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>84,05%</t>
+          <t>69,62%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>86,13%</t>
+          <t>73,16%</t>
         </is>
       </c>
     </row>
@@ -1300,22 +1300,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2647</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2503</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1370,22 +1370,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>5150</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1417,107 +1417,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11719</t>
+          <t>103899</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9061</t>
+          <t>83583</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15047</t>
+          <t>125433</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>20,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>24,6%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>226</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>24346</t>
+          <t>162177</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>20172</t>
+          <t>143852</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>28843</t>
+          <t>181151</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>32,7%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>29,01%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>36,53%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>319</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>36065</t>
+          <t>266076</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>30986</t>
+          <t>240379</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>41269</t>
+          <t>295474</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>26,45%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>23,9%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>29,38%</t>
         </is>
       </c>
     </row>
@@ -1530,107 +1530,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>848</t>
+          <t>394</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>163842</t>
+          <t>405980</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>160514</t>
+          <t>384446</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>166500</t>
+          <t>426296</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>93,32%</t>
+          <t>79,62%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,43%</t>
+          <t>75,4%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>94,84%</t>
+          <t>83,61%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1067</t>
+          <t>440</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>203648</t>
+          <t>333729</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>199151</t>
+          <t>314755</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>207822</t>
+          <t>352054</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>89,32%</t>
+          <t>67,3%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>87,35%</t>
+          <t>63,47%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>91,15%</t>
+          <t>70,99%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1915</t>
+          <t>834</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>367490</t>
+          <t>739710</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>362286</t>
+          <t>710312</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>372569</t>
+          <t>765407</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>91,06%</t>
+          <t>73,55%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>89,77%</t>
+          <t>70,62%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>92,32%</t>
+          <t>76,1%</t>
         </is>
       </c>
     </row>
@@ -1643,22 +1643,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1678,22 +1678,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1199</t>
+          <t>666</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1713,22 +1713,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>2106</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1760,107 +1760,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>466</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>77934</t>
+          <t>475502</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>70588</t>
+          <t>435317</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>85995</t>
+          <t>518135</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>23,16%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>21,2%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>1268</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>143694</t>
+          <t>856247</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>134542</t>
+          <t>815406</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>153807</t>
+          <t>898376</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>38,93%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>37,08%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>40,85%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>1275</t>
+          <t>1734</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>221628</t>
+          <t>1331749</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>209840</t>
+          <t>1274095</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>234669</t>
+          <t>1389831</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>31,32%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>13,86%</t>
+          <t>29,96%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>32,68%</t>
         </is>
       </c>
     </row>
@@ -1873,107 +1873,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3610</t>
+          <t>1422</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>641847</t>
+          <t>1577457</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>633786</t>
+          <t>1534824</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>649193</t>
+          <t>1617642</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>89,17%</t>
+          <t>76,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>88,05%</t>
+          <t>74,76%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>90,19%</t>
+          <t>78,8%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3629</t>
+          <t>1732</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>650109</t>
+          <t>1342997</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>639996</t>
+          <t>1300868</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>659261</t>
+          <t>1383838</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>81,9%</t>
+          <t>61,07%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>80,62%</t>
+          <t>59,15%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>83,05%</t>
+          <t>62,92%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>7239</t>
+          <t>3154</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1291956</t>
+          <t>2920454</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1278915</t>
+          <t>2862372</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1303744</t>
+          <t>2978108</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>85,36%</t>
+          <t>68,68%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>84,5%</t>
+          <t>67,32%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>86,14%</t>
+          <t>70,04%</t>
         </is>
       </c>
     </row>
@@ -1986,22 +1986,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4057</t>
+          <t>1888</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052959</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052959</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052959</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,22 +2021,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4457</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2199244</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2199244</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2199244</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,22 +2056,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>8514</t>
+          <t>4888</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4252203</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4252203</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4252203</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el dolor en Andalucia (tasa de respuesta: 99,9%)</t>
+          <t>Consumo de medicamentos para el dolor en Barcelona (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2342,107 +2342,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>79148</t>
+          <t>31662</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>67020</t>
+          <t>22825</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>93284</t>
+          <t>43861</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>34,67%</t>
+          <t>32,13%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,36%</t>
+          <t>23,16%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>40,86%</t>
+          <t>44,5%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>180</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>227730</t>
+          <t>78161</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>210344</t>
+          <t>67436</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>242060</t>
+          <t>87175</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>57,64%</t>
+          <t>65,64%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>53,24%</t>
+          <t>56,63%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>61,27%</t>
+          <t>73,21%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>245</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>306878</t>
+          <t>109823</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>285890</t>
+          <t>94374</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>330446</t>
+          <t>124293</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>49,23%</t>
+          <t>50,46%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>45,86%</t>
+          <t>43,36%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>53,01%</t>
+          <t>57,11%</t>
         </is>
       </c>
     </row>
@@ -2455,107 +2455,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>149149</t>
+          <t>66893</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>135013</t>
+          <t>54694</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>161277</t>
+          <t>75730</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>65,33%</t>
+          <t>67,87%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,14%</t>
+          <t>55,5%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>70,64%</t>
+          <t>76,84%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>167360</t>
+          <t>40919</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>153030</t>
+          <t>31905</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>184746</t>
+          <t>51644</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>42,36%</t>
+          <t>34,36%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>38,73%</t>
+          <t>26,79%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>46,76%</t>
+          <t>43,37%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>244</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>316509</t>
+          <t>107812</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>292941</t>
+          <t>93342</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>337497</t>
+          <t>123261</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>50,77%</t>
+          <t>49,54%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>46,99%</t>
+          <t>42,89%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>54,14%</t>
+          <t>56,64%</t>
         </is>
       </c>
     </row>
@@ -2568,22 +2568,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -2603,22 +2603,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>294</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>395090</t>
+          <t>119080</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>395090</t>
+          <t>119080</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>395090</t>
+          <t>119080</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -2638,22 +2638,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>985</t>
+          <t>489</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>623387</t>
+          <t>217635</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>623387</t>
+          <t>217635</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>623387</t>
+          <t>217635</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -2685,107 +2685,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>225</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>261152</t>
+          <t>100985</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>156370</t>
+          <t>88876</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>331234</t>
+          <t>112946</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>28,3%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>24,9%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,5%</t>
+          <t>31,65%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>324</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>604527</t>
+          <t>141869</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>449277</t>
+          <t>128527</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>930044</t>
+          <t>154250</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>43,62%</t>
+          <t>40,07%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>32,42%</t>
+          <t>36,3%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>67,11%</t>
+          <t>43,56%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>549</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>865679</t>
+          <t>242853</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>653219</t>
+          <t>224757</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>1359029</t>
+          <t>260604</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>30,97%</t>
+          <t>34,16%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>23,37%</t>
+          <t>31,61%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>48,62%</t>
+          <t>36,66%</t>
         </is>
       </c>
     </row>
@@ -2798,107 +2798,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>570</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1148241</t>
+          <t>255903</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1078159</t>
+          <t>243942</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1253023</t>
+          <t>268012</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>81,47%</t>
+          <t>71,7%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>76,5%</t>
+          <t>68,35%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>88,91%</t>
+          <t>75,1%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1006</t>
+          <t>483</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>781284</t>
+          <t>212201</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>455767</t>
+          <t>199820</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>936534</t>
+          <t>225543</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>56,38%</t>
+          <t>59,93%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>32,89%</t>
+          <t>56,44%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>67,58%</t>
+          <t>63,7%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1850</t>
+          <t>1053</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>1929525</t>
+          <t>468105</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1436175</t>
+          <t>450354</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2141985</t>
+          <t>486201</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>69,03%</t>
+          <t>65,84%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>51,38%</t>
+          <t>63,34%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>76,63%</t>
+          <t>68,39%</t>
         </is>
       </c>
     </row>
@@ -2911,22 +2911,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>795</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>356888</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>356888</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>356888</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -2946,22 +2946,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>807</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>354070</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>354070</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>354070</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -2981,22 +2981,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>1602</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>710958</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>710958</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>710958</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3028,107 +3028,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>95357</t>
+          <t>57602</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>75934</t>
+          <t>48221</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>114650</t>
+          <t>66794</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,74%</t>
+          <t>25,75%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>21,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,93%</t>
+          <t>29,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>215</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>147968</t>
+          <t>76930</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>131103</t>
+          <t>67374</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>165105</t>
+          <t>87784</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>33,37%</t>
+          <t>27,21%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>29,57%</t>
+          <t>23,83%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>37,24%</t>
+          <t>31,05%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>366</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>243324</t>
+          <t>134532</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>219451</t>
+          <t>122356</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>270124</t>
+          <t>148909</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>26,94%</t>
+          <t>26,57%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>24,16%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>29,91%</t>
+          <t>29,41%</t>
         </is>
       </c>
     </row>
@@ -3141,107 +3141,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>490</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>364444</t>
+          <t>166089</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>345151</t>
+          <t>156897</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>383867</t>
+          <t>175470</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>79,26%</t>
+          <t>74,25%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>75,07%</t>
+          <t>70,14%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>83,49%</t>
+          <t>78,44%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>546</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>295406</t>
+          <t>205752</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>278269</t>
+          <t>194898</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>312271</t>
+          <t>215308</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>66,63%</t>
+          <t>72,79%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>62,76%</t>
+          <t>68,95%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>70,43%</t>
+          <t>76,17%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>834</t>
+          <t>1036</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>659851</t>
+          <t>371841</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>633051</t>
+          <t>357464</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>683724</t>
+          <t>384017</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>73,06%</t>
+          <t>73,43%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>70,09%</t>
+          <t>70,59%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>75,7%</t>
+          <t>75,84%</t>
         </is>
       </c>
     </row>
@@ -3254,22 +3254,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>641</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>223691</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>223691</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>223691</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3289,22 +3289,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>761</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>282682</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>282682</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>282682</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3324,22 +3324,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>1402</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>506373</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>506373</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>506373</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -3371,107 +3371,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>441</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>435657</t>
+          <t>190248</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>284789</t>
+          <t>172246</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>508689</t>
+          <t>208189</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,77%</t>
+          <t>28,01%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,25%</t>
+          <t>30,66%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1268</t>
+          <t>719</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>980224</t>
+          <t>296960</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>834324</t>
+          <t>274894</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1313966</t>
+          <t>316240</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>44,07%</t>
+          <t>39,29%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>37,51%</t>
+          <t>36,37%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>59,07%</t>
+          <t>41,84%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>1734</t>
+          <t>1160</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>1415881</t>
+          <t>487208</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>1192278</t>
+          <t>461301</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>1862194</t>
+          <t>514071</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>33,95%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>27,59%</t>
+          <t>32,15%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>43,09%</t>
+          <t>35,82%</t>
         </is>
       </c>
     </row>
@@ -3484,107 +3484,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1422</t>
+          <t>1190</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1661834</t>
+          <t>488886</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1588802</t>
+          <t>470945</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1812702</t>
+          <t>506888</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>79,23%</t>
+          <t>71,99%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>75,75%</t>
+          <t>69,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>86,42%</t>
+          <t>74,64%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1732</t>
+          <t>1143</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1244052</t>
+          <t>458873</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>910310</t>
+          <t>439593</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1389952</t>
+          <t>480939</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>55,93%</t>
+          <t>60,71%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>40,93%</t>
+          <t>58,16%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>62,49%</t>
+          <t>63,63%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>3154</t>
+          <t>2333</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>2905885</t>
+          <t>947759</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2459572</t>
+          <t>920896</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>3129488</t>
+          <t>973666</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>67,24%</t>
+          <t>66,05%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>56,91%</t>
+          <t>64,18%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>72,41%</t>
+          <t>67,85%</t>
         </is>
       </c>
     </row>
@@ -3597,22 +3597,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1888</t>
+          <t>1631</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2097491</t>
+          <t>679134</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2097491</t>
+          <t>679134</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2097491</t>
+          <t>679134</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -3632,22 +3632,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>1862</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2224276</t>
+          <t>755833</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2224276</t>
+          <t>755833</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2224276</t>
+          <t>755833</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -3667,22 +3667,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>4888</t>
+          <t>3493</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>4321766</t>
+          <t>1434967</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>4321766</t>
+          <t>1434967</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>4321766</t>
+          <t>1434967</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5379,7 +5379,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el dolor en Barcelona (tasa de respuesta: 99,74%)</t>
+          <t>Consumo de medicamentos para el dolor en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5564,107 +5564,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>31662</t>
+          <t>15270</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22825</t>
+          <t>12287</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>43861</t>
+          <t>18244</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>32,13%</t>
+          <t>18,5%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,16%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>44,5%</t>
+          <t>22,1%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>212</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>78161</t>
+          <t>35397</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>67436</t>
+          <t>31401</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>87175</t>
+          <t>39588</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>65,64%</t>
+          <t>29,14%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>56,63%</t>
+          <t>25,85%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>73,21%</t>
+          <t>32,6%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>299</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>109823</t>
+          <t>50666</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>94374</t>
+          <t>45809</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>124293</t>
+          <t>56669</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>50,46%</t>
+          <t>24,84%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>43,36%</t>
+          <t>22,46%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>57,11%</t>
+          <t>27,78%</t>
         </is>
       </c>
     </row>
@@ -5677,107 +5677,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>416</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>66893</t>
+          <t>67272</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>54694</t>
+          <t>64298</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>75730</t>
+          <t>70255</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>67,87%</t>
+          <t>81,5%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>55,5%</t>
+          <t>77,9%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>76,84%</t>
+          <t>85,11%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>543</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>40919</t>
+          <t>86055</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>31905</t>
+          <t>81864</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>51644</t>
+          <t>90051</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>34,36%</t>
+          <t>70,86%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>26,79%</t>
+          <t>67,4%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>43,37%</t>
+          <t>74,15%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>959</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>107812</t>
+          <t>153328</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>93342</t>
+          <t>147325</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>123261</t>
+          <t>158185</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>49,54%</t>
+          <t>75,16%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>42,89%</t>
+          <t>72,22%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>56,64%</t>
+          <t>77,54%</t>
         </is>
       </c>
     </row>
@@ -5790,22 +5790,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>503</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -5825,22 +5825,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>755</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>119080</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>119080</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>119080</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -5860,22 +5860,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>1258</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>217635</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>217635</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>217635</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -5907,107 +5907,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>301</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>100985</t>
+          <t>50946</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>88876</t>
+          <t>45342</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>112946</t>
+          <t>57311</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,3%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,9%</t>
+          <t>9,82%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,65%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>484</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>141869</t>
+          <t>83950</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>128527</t>
+          <t>76830</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>154250</t>
+          <t>91062</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>40,07%</t>
+          <t>18,89%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>36,3%</t>
+          <t>17,29%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>43,56%</t>
+          <t>20,49%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>785</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>242853</t>
+          <t>134896</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>224757</t>
+          <t>125704</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>260604</t>
+          <t>144538</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>34,16%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>31,61%</t>
+          <t>13,87%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>36,66%</t>
+          <t>15,95%</t>
         </is>
       </c>
     </row>
@@ -6020,107 +6020,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>2346</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>255903</t>
+          <t>410733</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>243942</t>
+          <t>404368</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>268012</t>
+          <t>416337</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>71,7%</t>
+          <t>88,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>68,35%</t>
+          <t>87,59%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>75,1%</t>
+          <t>90,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>212201</t>
+          <t>360407</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>199820</t>
+          <t>353295</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>225543</t>
+          <t>367527</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>59,93%</t>
+          <t>81,11%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>56,44%</t>
+          <t>79,51%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>63,7%</t>
+          <t>82,71%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1053</t>
+          <t>4365</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>468105</t>
+          <t>771139</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>450354</t>
+          <t>761497</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>486201</t>
+          <t>780331</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>65,84%</t>
+          <t>85,11%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>63,34%</t>
+          <t>84,05%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>68,39%</t>
+          <t>86,13%</t>
         </is>
       </c>
     </row>
@@ -6133,22 +6133,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>2647</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>356888</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>356888</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>356888</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -6168,22 +6168,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>2503</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>354070</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>354070</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>354070</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -6203,22 +6203,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1602</t>
+          <t>5150</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>710958</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>710958</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>710958</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -6250,107 +6250,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>57602</t>
+          <t>11719</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>48221</t>
+          <t>9061</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>66794</t>
+          <t>15047</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,75%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,56%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>29,86%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>132</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>76930</t>
+          <t>24346</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>67374</t>
+          <t>20172</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>87784</t>
+          <t>28843</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>27,21%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>23,83%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>31,05%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>191</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>134532</t>
+          <t>36065</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>122356</t>
+          <t>30986</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>148909</t>
+          <t>41269</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>24,16%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>29,41%</t>
+          <t>10,23%</t>
         </is>
       </c>
     </row>
@@ -6363,107 +6363,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>848</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>166089</t>
+          <t>163842</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>156897</t>
+          <t>160514</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>175470</t>
+          <t>166500</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>74,25%</t>
+          <t>93,32%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>70,14%</t>
+          <t>91,43%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>78,44%</t>
+          <t>94,84%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>1067</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>205752</t>
+          <t>203648</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>194898</t>
+          <t>199151</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>215308</t>
+          <t>207822</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>72,79%</t>
+          <t>89,32%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>68,95%</t>
+          <t>87,35%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>76,17%</t>
+          <t>91,15%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1036</t>
+          <t>1915</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>371841</t>
+          <t>367490</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>357464</t>
+          <t>362286</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>384017</t>
+          <t>372569</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>73,43%</t>
+          <t>91,06%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>70,59%</t>
+          <t>89,77%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>75,84%</t>
+          <t>92,32%</t>
         </is>
       </c>
     </row>
@@ -6476,22 +6476,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>907</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>223691</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>223691</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>223691</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -6511,22 +6511,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>1199</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>282682</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>282682</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>282682</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -6546,22 +6546,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1402</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>506373</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>506373</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>506373</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -6593,107 +6593,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>447</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>190248</t>
+          <t>77934</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>172246</t>
+          <t>70588</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>208189</t>
+          <t>85995</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>28,01%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,36%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>30,66%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>719</t>
+          <t>828</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>296960</t>
+          <t>143694</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>274894</t>
+          <t>134542</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>316240</t>
+          <t>153807</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>39,29%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>36,37%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>41,84%</t>
+          <t>19,38%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>1160</t>
+          <t>1275</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>487208</t>
+          <t>221628</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>461301</t>
+          <t>209840</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>514071</t>
+          <t>234669</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>33,95%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>32,15%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>35,82%</t>
+          <t>15,5%</t>
         </is>
       </c>
     </row>
@@ -6706,107 +6706,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1190</t>
+          <t>3610</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>488886</t>
+          <t>641847</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>470945</t>
+          <t>633786</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>506888</t>
+          <t>649193</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>71,99%</t>
+          <t>89,17%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>69,34%</t>
+          <t>88,05%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>74,64%</t>
+          <t>90,19%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1143</t>
+          <t>3629</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>458873</t>
+          <t>650109</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>439593</t>
+          <t>639996</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>480939</t>
+          <t>659261</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>60,71%</t>
+          <t>81,9%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>58,16%</t>
+          <t>80,62%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>63,63%</t>
+          <t>83,05%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>2333</t>
+          <t>7239</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>947759</t>
+          <t>1291956</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>920896</t>
+          <t>1278915</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>973666</t>
+          <t>1303744</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>66,05%</t>
+          <t>85,36%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>64,18%</t>
+          <t>84,5%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>67,85%</t>
+          <t>86,14%</t>
         </is>
       </c>
     </row>
@@ -6819,22 +6819,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1631</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>679134</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>679134</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>679134</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -6854,22 +6854,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1862</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>755833</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>755833</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>755833</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -6889,22 +6889,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>3493</t>
+          <t>8514</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1434967</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1434967</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1434967</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
